--- a/trunk/hot-deploy/partner/document/钢管厂一期软件开发需求/钢管厂一期需求分析.xlsx
+++ b/trunk/hot-deploy/partner/document/钢管厂一期软件开发需求/钢管厂一期需求分析.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="129">
   <si>
     <t>二级模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -516,19 +516,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采购付款管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购付款单新增,修改, 删除和查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>采购员提交 -&gt; 部门经理审批 -&gt; 财务部门审批 -&gt; 订单完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购订单完成 -&gt; 财务部门在系统新建一张采购付款单 -&gt; 财务部门填写必要的付款信息 -&gt; 款项汇出 -&gt; 订单完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -552,7 +540,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,12 +581,6 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -684,7 +666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,12 +723,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1042,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1113,7 +1089,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="66">
@@ -1472,82 +1448,82 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="49.5">
+    <row r="29" spans="1:5" ht="33">
       <c r="A29" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>124</v>
+      <c r="B29" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" s="20"/>
+        <v>120</v>
+      </c>
+      <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="33">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="49.5">
       <c r="A30" s="17"/>
       <c r="B30" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="49.5">
-      <c r="A31" s="17"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="D31" s="6"/>
       <c r="E31" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="49.5">
-      <c r="A32" s="18"/>
-      <c r="B32" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>59</v>
-      </c>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="12"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="12"/>
+      <c r="E32" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="33">
+      <c r="A33" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="D33" s="6"/>
       <c r="E33" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="33">
-      <c r="A34" s="14" t="s">
-        <v>13</v>
-      </c>
+    <row r="34" spans="1:5">
+      <c r="A34" s="14"/>
       <c r="B34" s="5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="7" t="s">
@@ -1557,10 +1533,10 @@
     <row r="35" spans="1:5">
       <c r="A35" s="14"/>
       <c r="B35" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="7" t="s">
@@ -1570,10 +1546,10 @@
     <row r="36" spans="1:5">
       <c r="A36" s="14"/>
       <c r="B36" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="7" t="s">
@@ -1583,68 +1559,68 @@
     <row r="37" spans="1:5">
       <c r="A37" s="14"/>
       <c r="B37" s="5" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="7" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="14"/>
       <c r="B38" s="5" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="7" t="s">
-        <v>131</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="14"/>
       <c r="B39" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="14"/>
+    <row r="40" spans="1:5" ht="49.5">
+      <c r="A40" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="B40" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="E40" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="49.5">
-      <c r="A41" s="14" t="s">
-        <v>14</v>
-      </c>
+    <row r="41" spans="1:5">
+      <c r="A41" s="14"/>
       <c r="B41" s="5" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>115</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D41" s="6"/>
       <c r="E41" s="7" t="s">
         <v>9</v>
       </c>
@@ -1652,10 +1628,10 @@
     <row r="42" spans="1:5">
       <c r="A42" s="14"/>
       <c r="B42" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="7" t="s">
@@ -1665,10 +1641,10 @@
     <row r="43" spans="1:5">
       <c r="A43" s="14"/>
       <c r="B43" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="7" t="s">
@@ -1678,10 +1654,10 @@
     <row r="44" spans="1:5">
       <c r="A44" s="14"/>
       <c r="B44" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="7" t="s">
@@ -1691,10 +1667,10 @@
     <row r="45" spans="1:5">
       <c r="A45" s="14"/>
       <c r="B45" s="5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="7" t="s">
@@ -1704,40 +1680,27 @@
     <row r="46" spans="1:5">
       <c r="A46" s="14"/>
       <c r="B46" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="14"/>
-      <c r="B47" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="A40:A46"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A33:A39"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A29:A31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/hot-deploy/partner/document/钢管厂一期软件开发需求/钢管厂一期需求分析.xlsx
+++ b/trunk/hot-deploy/partner/document/钢管厂一期软件开发需求/钢管厂一期需求分析.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="结构表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="164">
   <si>
     <t>二级模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>委外加工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成品销售管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分条制造入库管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,22 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分条委外领料单的新增, 修改, 删除和查看.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分条委外入库单的新增, 修改, 删除和查看.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉管委外领料单的新增, 修改, 删除和查看.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉管委外入库单的新增, 修改, 删除和查看.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仓管员提交 -&gt; 待填入客户回笼的重量后 -&gt; 订单完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,15 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>委外退货单的新增, 修改, 删除和查看.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 钢管厂重量(用于成本计算), 客户回笼重量(用于财务收款).
-- 损耗=(客户回笼重量 - 钢管厂重量) X 系统成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- 销售通知单与销售订单关系是n对1, 销售通知单单价直接由销售订单自动获取.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -374,34 +341,6 @@
   </si>
   <si>
     <t>仓库盘点(钢材/管材)管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分条委外领料管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分条委外退料管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分条委外入库管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分条委外退货管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分条委外退料单的新增, 修改, 删除和查看.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉管委外退料单的新增, 修改, 删除和查看.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉管委外退货单的新增, 修改, 删除和查看.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -447,22 +386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拉管委外领料管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉管委外入库管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉管委外退料管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉管委外退货管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>销售退货通知单(管材)管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -508,14 +431,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>财务部门根据发票申请开具发票, 根据实际发票在系统开具一张发票单据 -&gt; 财务部填写必要信息 -&gt;订单完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票单据完成后, 自动生成对应收款单 (如无需发票, 财务部门需人工新建收款单) -&gt; 待款项到账, 财务部门更改状态 -&gt; 订单完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>采购员提交 -&gt; 部门经理审批 -&gt; 财务部门审批 -&gt; 订单完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -533,6 +448,231 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除财务部门审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委外加工(轧制\返拔)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品销售管理 (不只是销售管材,还会直接销售板材,分条带)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出货通知单的单价直接由业务员人工填写.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产通知单下达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产通知单的新增,修改,删除和查看.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由生产部人员填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产部人员提交-&gt;完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 钢管厂重量(用于成本计算), 客户回笼重量(用于财务收款).
+- 损耗=(客户回笼重量 - 钢管厂重量) X 系统成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户对数表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月根据客户销售出货单进行统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分折统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收帐款明细表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月根据客户销售金额、收到款项进行统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款单分已到帐和未到帐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务部门根据发票申请开具发票, 根据实际发票在系统开具一张发票单据 -&gt; 财务部填写必要信息 '发票单据完成后, 自动生成对应收款单 (如无需发票, 财务部门需人工新建收款单) -&gt; 待款项到账, 财务部门更改状态 -&gt; 订单完成-&gt;订单完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务部收到现金、支票或承兑都应制作收款单，并区分已到帐和未到帐，未到帐的支票或承兑在制单时还要注明到期日。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轧制委外领料管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轧制委外入库管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轧制委外退料管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轧制委外退货管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返拔管委外领料管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返拔管委外入库管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返拔管委外退料管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返拔管委外退货管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料销售管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料(钢材)出库单的新增, 修改, 删除和查看.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料销售单的成本单价用系统平均价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购进仓汇总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原材料分条出仓汇总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窄带车间领料汇总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窄带销售汇总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢管销售汇总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢管退货汇总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定祥细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各单位收发存汇总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括:卷板\带钢\窄带\钢管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘点功能:按规格、材质、客户录入盘点数后，自动生成与系统相对应的数作对比，分别计算出差客，由仓管员分折是否作盘盈盘亏处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统打印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购入单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分条生产计划单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉管生产计划单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售出货单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售退货单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设生产选择功能：机台、班组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设销售单位选择功能：富来、贸易、五金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移仓单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轧制委外领料单的新增, 修改, 删除和查看.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轧制委外入库单的新增, 修改, 删除和查看.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轧制委外退料单的新增, 修改, 删除和查看.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委外退货单的新增, 修改, 删除和查看.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拔管委外领料单的新增, 修改, 删除和查看.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拔管委外入库单的新增, 修改, 删除和查看.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拔管委外退料单的新增, 修改, 删除和查看.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拔管委外退货单的新增, 修改, 删除和查看.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,48 +685,41 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF00B0F0"/>
+      <color indexed="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="40"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,7 +728,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,6 +775,19 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -647,26 +805,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -703,25 +848,103 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -730,18 +953,86 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CADFD1"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1018,13 +1309,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.75" style="1" bestFit="1" customWidth="1"/>
@@ -1034,16 +1325,16 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.75">
-      <c r="A1" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5">
+    <row r="1" spans="1:6" ht="22.5">
+      <c r="A1" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1057,650 +1348,889 @@
         <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24">
+      <c r="A4" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="33">
-      <c r="A4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="66">
-      <c r="A5" s="14"/>
+      <c r="E4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="48">
+      <c r="A5" s="36"/>
       <c r="B5" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="14"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="36"/>
       <c r="B6" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24">
+      <c r="A7" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="19" customFormat="1">
+      <c r="A8" s="42"/>
+      <c r="B8" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="16" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12" customHeight="1">
+      <c r="A10" s="30"/>
+      <c r="B10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12" customHeight="1">
+      <c r="A11" s="30"/>
+      <c r="B11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12" customHeight="1">
+      <c r="A12" s="30"/>
+      <c r="B12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24">
+      <c r="A13" s="30"/>
+      <c r="B13" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12" customHeight="1">
+      <c r="A14" s="30"/>
+      <c r="B14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="12" customHeight="1">
+      <c r="A15" s="31"/>
+      <c r="B15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="24">
+      <c r="A17" s="39"/>
+      <c r="B17" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="39"/>
+      <c r="B18" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="24">
+      <c r="A19" s="39"/>
+      <c r="B19" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24">
+      <c r="A20" s="39"/>
+      <c r="B20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="24">
+      <c r="A21" s="39"/>
+      <c r="B21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="39"/>
+      <c r="B22" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="24">
+      <c r="A23" s="40"/>
+      <c r="B23" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="24">
+      <c r="A25" s="39"/>
+      <c r="B25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="19" customFormat="1">
+      <c r="A26" s="39"/>
+      <c r="B26" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="48">
+      <c r="A27" s="39"/>
+      <c r="B27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="24">
+      <c r="A28" s="39"/>
+      <c r="B28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="33">
-      <c r="A7" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="17"/>
-      <c r="B8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="17"/>
-      <c r="B10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="17"/>
-      <c r="B11" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="33">
-      <c r="A12" s="17"/>
-      <c r="B12" s="13" t="s">
+    <row r="29" spans="1:6" ht="36">
+      <c r="A29" s="39"/>
+      <c r="B29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="40"/>
+      <c r="B30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="24">
+      <c r="A31" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="72">
+      <c r="A32" s="43"/>
+      <c r="B32" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="36">
+      <c r="A33" s="44"/>
+      <c r="B33" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="20"/>
+      <c r="B36" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="20"/>
+      <c r="B37" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="20"/>
+      <c r="B38" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="20"/>
+      <c r="B39" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="20"/>
+      <c r="B40" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="20"/>
+      <c r="B41" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="20"/>
+      <c r="B42" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="20"/>
+      <c r="B43" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="33"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="20"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="20"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="24">
+      <c r="A47" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="36"/>
+      <c r="B48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="36"/>
+      <c r="B49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="36"/>
+      <c r="B50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="36"/>
+      <c r="B51" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="17"/>
-      <c r="B13" s="13" t="s">
+      <c r="C51" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="18"/>
-      <c r="B14" s="13" t="s">
+      <c r="D51" s="6"/>
+      <c r="E51" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="36"/>
+      <c r="B52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="14" t="s">
+      <c r="D52" s="6"/>
+      <c r="E52" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="33">
-      <c r="A16" s="14"/>
-      <c r="B16" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="14"/>
-      <c r="B17" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="33">
-      <c r="A18" s="14"/>
-      <c r="B18" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="33">
-      <c r="A19" s="14"/>
-      <c r="B19" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="33">
-      <c r="A20" s="14"/>
-      <c r="B20" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="14"/>
-      <c r="B21" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="33">
-      <c r="A22" s="14"/>
-      <c r="B22" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="6" t="s">
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="36"/>
+      <c r="B53" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="36">
+      <c r="A54" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="33">
-      <c r="A24" s="14"/>
-      <c r="B24" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="49.5">
-      <c r="A25" s="14"/>
-      <c r="B25" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="33">
-      <c r="A26" s="14"/>
-      <c r="B26" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="49.5">
-      <c r="A27" s="14"/>
-      <c r="B27" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="14"/>
-      <c r="B28" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="33">
-      <c r="A29" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="49.5">
-      <c r="A30" s="17"/>
-      <c r="B30" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="49.5">
-      <c r="A31" s="18"/>
-      <c r="B31" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="33">
-      <c r="A33" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="14"/>
-      <c r="B34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="E54" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="36"/>
+      <c r="B55" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="36"/>
+      <c r="B56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="36"/>
+      <c r="B57" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="36"/>
+      <c r="B58" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="36"/>
+      <c r="B59" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="36"/>
+      <c r="B60" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="14"/>
-      <c r="B35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="14"/>
-      <c r="B36" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="14"/>
-      <c r="B37" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="14"/>
-      <c r="B38" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="14"/>
-      <c r="B39" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="49.5">
-      <c r="A40" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="14"/>
-      <c r="B41" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="14"/>
-      <c r="B42" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="14"/>
-      <c r="B43" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="14"/>
-      <c r="B44" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="14"/>
-      <c r="B45" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="14"/>
-      <c r="B46" s="5" t="s">
+      <c r="C60" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="26" customFormat="1">
+      <c r="A61" s="25"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="28"/>
+    </row>
+    <row r="62" spans="1:5" s="26" customFormat="1">
+      <c r="A62" s="25"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="28"/>
+    </row>
+    <row r="63" spans="1:5" s="26" customFormat="1">
+      <c r="A63" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="28"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="23"/>
+      <c r="D64" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E64" s="24"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" s="35"/>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66" s="35"/>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D67" s="35"/>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="18"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="17"/>
+      <c r="B69" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A40:A46"/>
+  <mergeCells count="11">
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="D35:D46"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="A54:A60"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A47:A53"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A29:A31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/hot-deploy/partner/document/钢管厂一期软件开发需求/钢管厂一期需求分析.xlsx
+++ b/trunk/hot-deploy/partner/document/钢管厂一期软件开发需求/钢管厂一期需求分析.xlsx
@@ -2,19 +2,193 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="结构表" sheetId="1" r:id="rId1"/>
+    <sheet name="采购订单(钢材)管理" sheetId="2" r:id="rId2"/>
+    <sheet name="采购入库(钢材)管理" sheetId="3" r:id="rId3"/>
+    <sheet name="采购退货(钢材)管理" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单据编码</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">物料编码
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">物料编码
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单据编码</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">物料编码
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">物料编码
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单据编码</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">物料编码
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">物料编码
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="225">
   <si>
     <t>二级模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -304,15 +478,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采购订单(钢材)管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>采购入库(钢材)管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购退货(钢材)管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -674,12 +840,280 @@
     <t>设销售单位选择功能：富来、贸易、五金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>采购订单(钢材)管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单(钢材)管理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>至</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据状态</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料名称</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主单</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务日期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>总金额</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收员</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统自动生成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购员</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购部门</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核员</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>总金额</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>返货时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款方式</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>税金</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>送货地址</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后更新时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据状态</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核意见</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购员</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购部门</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核员</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核意见</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>返货时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格型号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量要求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>交货日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>精钢</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5*800</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购入库(钢材)管理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>交货数量(顿)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单数量(顿)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核是否通过</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes/no</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统自动取当前登录人员</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收员</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考单价</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>应待收数量(顿)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购退货(钢材)管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购退货(钢材)管理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货员</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统结算单价</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际退货单价</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,8 +1153,99 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="30"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="17"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,8 +1276,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -812,13 +1367,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,9 +1538,72 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -915,68 +1628,107 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -985,6 +1737,2798 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30255</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>203387</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7221630" y="516031"/>
+          <a:ext cx="552450" cy="201706"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>查询</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>84603</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>634812</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="84603" y="236444"/>
+          <a:ext cx="550209" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>新增</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>46503</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>596711</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="732303" y="236444"/>
+          <a:ext cx="550208" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>修改</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>72836</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>625286</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1444436" y="236444"/>
+          <a:ext cx="552450" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>删除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>44261</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>596712</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2101661" y="236444"/>
+          <a:ext cx="552451" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>提交</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>711013</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>207869</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2730313" y="238125"/>
+          <a:ext cx="546287" cy="198344"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>撤销</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>378197</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244847</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>207869</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="圆角矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5083547" y="241487"/>
+          <a:ext cx="552450" cy="194982"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>导出</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>444872</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>311522</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="圆角矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5836022" y="251012"/>
+          <a:ext cx="552450" cy="194982"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>打印</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>158562</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25772</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="圆角矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3492312" y="251012"/>
+          <a:ext cx="553010" cy="194982"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>审核</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158561</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="圆角矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4178111" y="238125"/>
+          <a:ext cx="746313" cy="207869"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>反审核</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>20729</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>115980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="圆角矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1392329" y="6250080"/>
+          <a:ext cx="884145" cy="188819"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>分录新增</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>344579</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1228724</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="圆角矩形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2363879" y="6259605"/>
+          <a:ext cx="884145" cy="188819"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>分录删除</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>392204</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="圆角矩形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4411754" y="8382000"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>直接提交</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>468404</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="圆角矩形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5173754" y="8382000"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>保存</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>535079</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="圆角矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5926229" y="8372475"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>审核</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>620804</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="圆角矩形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6697754" y="8353425"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>重填</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>706529</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="圆角矩形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7469279" y="8343900"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>打印</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>573179</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="圆角矩形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8231279" y="8334375"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>取消</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>325529</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="圆角矩形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1697129" y="10467975"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>确定</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>192179</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="圆角矩形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2525804" y="10458450"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>取消</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30255</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>203387</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8002680" y="516031"/>
+          <a:ext cx="552450" cy="182656"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>查询</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>84603</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>634812</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="84603" y="236444"/>
+          <a:ext cx="550209" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>新增</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>46503</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>596711</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="732303" y="236444"/>
+          <a:ext cx="550208" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>修改</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>72836</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>625286</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1444436" y="236444"/>
+          <a:ext cx="552450" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>删除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>834836</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>425262</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2206436" y="236444"/>
+          <a:ext cx="552451" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>提交</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>606238</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>198344</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2939863" y="228600"/>
+          <a:ext cx="546287" cy="198344"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>撤销</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>187697</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>54347</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>198344</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3835772" y="231962"/>
+          <a:ext cx="552450" cy="194982"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>导出</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>254372</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>121022</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>207869</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4588247" y="241487"/>
+          <a:ext cx="552450" cy="194982"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>打印</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>20729</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>115980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="圆角矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1392329" y="6250080"/>
+          <a:ext cx="1198470" cy="188819"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>分录新增</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>344579</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1228724</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="圆角矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2678204" y="6259605"/>
+          <a:ext cx="884145" cy="188819"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>分录删除</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>420779</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="圆角矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5440454" y="8001000"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>直接提交</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>496979</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="圆角矩形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6202454" y="8001000"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>保存</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>620804</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="圆角矩形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7012079" y="8353425"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>重填</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>706529</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="圆角矩形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7783604" y="8343900"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>打印</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>573179</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="圆角矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8545604" y="8334375"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>取消</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30255</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>203387</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8002680" y="516031"/>
+          <a:ext cx="552450" cy="182656"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>查询</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>84603</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>634812</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="84603" y="236444"/>
+          <a:ext cx="550209" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>新增</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>46503</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>596711</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="732303" y="236444"/>
+          <a:ext cx="550208" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>修改</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>72836</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>625286</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1444436" y="236444"/>
+          <a:ext cx="552450" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>删除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>834836</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>425262</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2206436" y="236444"/>
+          <a:ext cx="552451" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>提交</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>606238</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>198344</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2939863" y="228600"/>
+          <a:ext cx="546287" cy="198344"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>撤销</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>187697</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>54347</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>198344</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3835772" y="231962"/>
+          <a:ext cx="552450" cy="194982"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>导出</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>254372</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>121022</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>207869</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4588247" y="241487"/>
+          <a:ext cx="552450" cy="194982"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>打印</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>20729</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>115980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="圆角矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1392329" y="5888130"/>
+          <a:ext cx="1198470" cy="188819"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>分录新增</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>344579</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1228724</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="圆角矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2678204" y="5897655"/>
+          <a:ext cx="884145" cy="188819"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>分录删除</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>420779</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="圆角矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5440454" y="8001000"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>直接提交</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>496979</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="圆角矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6202454" y="8001000"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>保存</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>620804</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="圆角矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7012079" y="7991475"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>重填</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>706529</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="圆角矩形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7783604" y="7981950"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>打印</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>573179</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="圆角矩形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8545604" y="7972425"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>取消</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1265,7 +4809,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr rtlCol="0" anchor="ctr"/>
+      <a:lstStyle>
+        <a:defPPr algn="ctr">
+          <a:defRPr sz="1100"/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -1274,8 +4842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C41" sqref="A33:C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1290,13 +4858,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.75">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
@@ -1331,11 +4899,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="33">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>59</v>
@@ -1343,29 +4911,29 @@
       <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>151</v>
+      <c r="E4" s="23" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="66">
-      <c r="A5" s="32"/>
-      <c r="B5" s="5" t="s">
-        <v>73</v>
+      <c r="A5" s="37"/>
+      <c r="B5" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="32"/>
-      <c r="B6" s="5" t="s">
-        <v>74</v>
+      <c r="A6" s="37"/>
+      <c r="B6" s="31" t="s">
+        <v>220</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>61</v>
@@ -1378,11 +4946,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="33">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="41" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>63</v>
@@ -1395,42 +4963,42 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="17" customFormat="1" ht="66">
-      <c r="A8" s="37"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="14" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A9" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="39" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="14" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="10" spans="1:6" ht="12" customHeight="1">
-      <c r="A10" s="27"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="8" t="s">
         <v>40</v>
       </c>
@@ -1443,7 +5011,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="12" customHeight="1">
-      <c r="A11" s="27"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="8" t="s">
         <v>39</v>
       </c>
@@ -1458,7 +5026,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="12" customHeight="1">
-      <c r="A12" s="27"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="8" t="s">
         <v>67</v>
       </c>
@@ -1473,9 +5041,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="33">
-      <c r="A13" s="27"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>43</v>
@@ -1488,9 +5056,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="12" customHeight="1">
-      <c r="A14" s="27"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>44</v>
@@ -1503,9 +5071,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="12" customHeight="1">
-      <c r="A15" s="28"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>70</v>
@@ -1518,14 +5086,14 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="34" t="s">
-        <v>102</v>
+      <c r="A16" s="38" t="s">
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
@@ -1533,57 +5101,57 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="33">
-      <c r="A17" s="35"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="35"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="33">
-      <c r="A19" s="35"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="33">
-      <c r="A20" s="35"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>65</v>
@@ -1593,56 +5161,56 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="33">
-      <c r="A21" s="35"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="35"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="33">
-      <c r="A23" s="36"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="34" t="s">
-        <v>103</v>
+      <c r="A24" s="38" t="s">
+        <v>101</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>52</v>
@@ -1653,55 +5221,55 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="33">
-      <c r="A25" s="35"/>
-      <c r="B25" s="46" t="s">
-        <v>82</v>
+      <c r="A25" s="39"/>
+      <c r="B25" s="31" t="s">
+        <v>80</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="44" t="s">
-        <v>155</v>
+      <c r="D25" s="29" t="s">
+        <v>153</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="43"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1">
-      <c r="A26" s="35"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>124</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="49.5">
-      <c r="A27" s="35"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="45" t="s">
-        <v>156</v>
+      <c r="D27" s="30" t="s">
+        <v>154</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="33">
-      <c r="A28" s="35"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>55</v>
@@ -1712,156 +5280,156 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="49.5">
-      <c r="A29" s="35"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E29" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="33">
+      <c r="A30" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="33">
-      <c r="A30" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="C30" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="99">
+      <c r="A31" s="45"/>
+      <c r="B31" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="99">
-      <c r="A31" s="24"/>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="99">
-      <c r="A32" s="25"/>
-      <c r="B32" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="47" t="s">
+      <c r="A32" s="46"/>
+      <c r="B32" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>158</v>
+      <c r="D32" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="44"/>
+      <c r="B34" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="29" t="s">
+      <c r="D34" s="51"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="44"/>
+      <c r="B35" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="44"/>
+      <c r="B36" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="44"/>
+      <c r="B37" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="44"/>
+      <c r="B38" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="44"/>
+      <c r="B39" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="44"/>
+      <c r="B40" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="44"/>
+      <c r="B41" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="51"/>
-      <c r="B34" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="51"/>
-      <c r="B35" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="51"/>
-      <c r="B36" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="51"/>
-      <c r="B37" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="51"/>
-      <c r="B38" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="51"/>
-      <c r="B39" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="51"/>
-      <c r="B40" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="51"/>
-      <c r="B41" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D41" s="30"/>
+      <c r="D41" s="51"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="33">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -1876,7 +5444,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="32"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="5" t="s">
         <v>30</v>
       </c>
@@ -1889,7 +5457,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="32"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="5" t="s">
         <v>15</v>
       </c>
@@ -1902,7 +5470,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="32"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="5" t="s">
         <v>14</v>
       </c>
@@ -1915,25 +5483,25 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="32"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="32"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="9" t="s">
@@ -1941,7 +5509,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="32"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="5" t="s">
         <v>18</v>
       </c>
@@ -1954,7 +5522,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="49.5">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -1964,14 +5532,14 @@
         <v>24</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="32"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="5" t="s">
         <v>34</v>
       </c>
@@ -1984,7 +5552,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="32"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="5" t="s">
         <v>16</v>
       </c>
@@ -1997,7 +5565,7 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="32"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="5" t="s">
         <v>36</v>
       </c>
@@ -2010,7 +5578,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="32"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="5" t="s">
         <v>19</v>
       </c>
@@ -2023,7 +5591,7 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="32"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="5" t="s">
         <v>28</v>
       </c>
@@ -2036,7 +5604,7 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="32"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="5" t="s">
         <v>32</v>
       </c>
@@ -2052,88 +5620,90 @@
       <c r="A56" s="20"/>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
-      <c r="E56" s="40"/>
+      <c r="E56" s="25"/>
     </row>
     <row r="57" spans="1:5" s="21" customFormat="1">
       <c r="A57" s="20"/>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
-      <c r="E57" s="40"/>
+      <c r="E57" s="25"/>
     </row>
     <row r="58" spans="1:5" s="21" customFormat="1">
       <c r="A58" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
-      <c r="E58" s="40"/>
+      <c r="E58" s="25"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C59" s="19"/>
-      <c r="D59" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E59" s="41"/>
+      <c r="D59" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="E59" s="26"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="15"/>
       <c r="B60" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="D60" s="31"/>
+        <v>134</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="52"/>
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="15"/>
       <c r="B61" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C61" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="D61" s="31"/>
+        <v>135</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="52"/>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="15"/>
       <c r="B62" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="D62" s="31"/>
+        <v>136</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="52"/>
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="15"/>
       <c r="B63" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C63" s="16"/>
-      <c r="D63" s="31"/>
+      <c r="D63" s="52"/>
       <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="15"/>
       <c r="B64" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C64" s="16"/>
-      <c r="D64" s="31"/>
+      <c r="D64" s="52"/>
       <c r="E64" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="A49:A55"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A16:A23"/>
@@ -2144,11 +5714,2324 @@
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="D33:D41"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="A49:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="9" style="66"/>
+    <col min="3" max="3" width="12.625" style="66" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="66" customWidth="1"/>
+    <col min="5" max="9" width="9" style="66"/>
+    <col min="10" max="10" width="11.75" style="66" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="66"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18">
+      <c r="A1" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="83"/>
+    </row>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="60">
+        <v>41445</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="60">
+        <v>41455</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="70"/>
+      <c r="I3" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="71"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="71"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="M5" s="71"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="65"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="71"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="65"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="71"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="65"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="71"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="72"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="71"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="71"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="L11" s="70"/>
+      <c r="M11" s="71"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="65"/>
+      <c r="B12" s="58" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="55"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="71"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="65"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="71"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="65"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="71"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="65"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="71"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="72"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="71"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1">
+      <c r="A17" s="73"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="75"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="79"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="79"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="B21" s="77"/>
+      <c r="C21" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" s="79"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="79"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="79"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="B23" s="77"/>
+      <c r="C23" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="79"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" s="79"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" s="79"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="79"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="79"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25" s="77"/>
+      <c r="C25" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="79"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" s="79"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="J25" s="79"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="79"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="79"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="B27" s="77"/>
+      <c r="C27" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="79"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="79"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="79"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="B29" s="77"/>
+      <c r="C29" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="79"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" s="77"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="79"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="B31" s="77"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="79"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="B32" s="77"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="79"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="77"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="79"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="79"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="79"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="77"/>
+      <c r="C36" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="E36" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="F36" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="G36" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="H36" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="I36" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="J36" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="K36" s="77"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="79"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="77"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="79"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="77"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="79"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="77"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="77"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="77"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="77"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="77"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="77"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="77"/>
+      <c r="C44" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" s="80"/>
+      <c r="E44" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="F44" s="79"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="I44" s="79"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="77"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="77"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="77"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="77"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="77"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="77"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="77"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="77"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50" s="77"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="B51" s="77"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="B52" s="77"/>
+      <c r="C52" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="E52" s="77"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="B53" s="77"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="B54" s="77"/>
+      <c r="C54" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D54" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="E54" s="77"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="B55" s="77"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="B56" s="77"/>
+      <c r="C56" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" s="79"/>
+      <c r="E56" s="77"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="B57" s="77"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="77"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="B58" s="77"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="77"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="B59" s="77"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="B60" s="77"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="77"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="B61" s="77"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="9" style="66"/>
+    <col min="3" max="3" width="12.625" style="66" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="66" customWidth="1"/>
+    <col min="5" max="6" width="10.5" style="66" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9" style="66"/>
+    <col min="10" max="10" width="11.75" style="66" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="66"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18">
+      <c r="A1" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="83"/>
+    </row>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="60">
+        <v>41445</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="60">
+        <v>41455</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="70"/>
+      <c r="I3" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="71"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="71"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="70"/>
+      <c r="M5" s="71"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="65"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="71"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="65"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="71"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="65"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="56"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="71"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="72"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="71"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="71"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="L11" s="70"/>
+      <c r="M11" s="71"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="65"/>
+      <c r="B12" s="58" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="71"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="65"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="71"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="65"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="71"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="65"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="71"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="72"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="71"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1">
+      <c r="A17" s="73"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="75"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="79"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="79"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="B21" s="77"/>
+      <c r="C21" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" s="79"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="79"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="79"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="B23" s="77"/>
+      <c r="C23" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="79"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="G23" s="79"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="79"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="79"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25" s="77"/>
+      <c r="C25" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="79"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" s="77"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="79"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="B27" s="77"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="79"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="B28" s="77"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="79"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="B29" s="77"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="79"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="79"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="79"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="B32" s="77"/>
+      <c r="C32" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="E32" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="G32" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="H32" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="I32" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="77"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="79"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="77"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="79"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="77"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="77"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="77"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="77"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="77"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="77"/>
+      <c r="C40" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" s="80"/>
+      <c r="E40" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" s="79"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="I40" s="79"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="77"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="9" style="66"/>
+    <col min="3" max="3" width="12.625" style="66" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="66" customWidth="1"/>
+    <col min="5" max="9" width="9" style="66"/>
+    <col min="10" max="10" width="11.75" style="66" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="66"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18">
+      <c r="A1" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="83"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="60">
+        <v>41445</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="60">
+        <v>41455</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="70"/>
+      <c r="I3" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="71"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="71"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="70"/>
+      <c r="M5" s="71"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="65"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="71"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="65"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="71"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="65"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="71"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="72"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="71"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="71"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="L11" s="70"/>
+      <c r="M11" s="71"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="65"/>
+      <c r="B12" s="58" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="71"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="65"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="71"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="65"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="71"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="65"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="71"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="72"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="71"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1">
+      <c r="A17" s="73"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="75"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="79"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="79"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="B21" s="77"/>
+      <c r="C21" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" s="79"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="79"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="79"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="B23" s="77"/>
+      <c r="C23" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="79"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="J23" s="79"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="79"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="79"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25" s="77"/>
+      <c r="C25" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="79"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="79"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="79"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="B27" s="77"/>
+      <c r="C27" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="79"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="B28" s="77"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="79"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="B29" s="77"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="79"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" s="77"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="79"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="B31" s="77"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="79"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="79"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="79"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="77"/>
+      <c r="C34" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="G34" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="H34" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="I34" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="J34" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="77"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="79"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="77"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="79"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="77"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="77"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="77"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="77"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="77"/>
+      <c r="C42" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" s="80"/>
+      <c r="E42" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="F42" s="79"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="I42" s="79"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="77"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="77"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="77"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="77"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/trunk/hot-deploy/partner/document/钢管厂一期软件开发需求/钢管厂一期需求分析.xlsx
+++ b/trunk/hot-deploy/partner/document/钢管厂一期软件开发需求/钢管厂一期需求分析.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="结构表" sheetId="1" r:id="rId1"/>
     <sheet name="采购订单(钢材)管理" sheetId="2" r:id="rId2"/>
     <sheet name="采购入库(钢材)管理" sheetId="3" r:id="rId3"/>
     <sheet name="采购退货(钢材)管理" sheetId="4" r:id="rId4"/>
+    <sheet name="生产通知单下达" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -187,8 +188,65 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单据编码</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">物料编码
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">物料编码
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="225">
   <si>
     <t>二级模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,15 +651,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>委外加工(轧制\返拔)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成品销售管理 (不只是销售管材,还会直接销售板材,分条带)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产通知单下达</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1107,6 +1157,14 @@
   <si>
     <t>实际退货单价</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>委外加工(轧制\返拔)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产通知单下达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1245,7 +1303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1303,6 +1361,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1468,7 +1532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1577,57 +1641,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1712,6 +1725,72 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1721,14 +1800,14 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4531,6 +4610,1122 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30255</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>203387</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8002680" y="516031"/>
+          <a:ext cx="552450" cy="182656"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>查询</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>84603</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>634812</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="84603" y="236444"/>
+          <a:ext cx="550209" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>新增</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>46503</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>596711</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="732303" y="236444"/>
+          <a:ext cx="550208" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>修改</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>72836</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>625286</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1444436" y="236444"/>
+          <a:ext cx="552450" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>删除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>44261</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>596712</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2377886" y="236444"/>
+          <a:ext cx="552451" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>提交</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>711013</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>207869</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3044638" y="238125"/>
+          <a:ext cx="546287" cy="198344"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>撤销</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>378197</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244847</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>207869</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5397872" y="241487"/>
+          <a:ext cx="552450" cy="194982"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>导出</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>444872</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>311522</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6150347" y="251012"/>
+          <a:ext cx="552450" cy="194982"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>打印</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>158562</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25772</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="圆角矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3806637" y="251012"/>
+          <a:ext cx="553010" cy="194982"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>审核</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158561</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="圆角矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4492436" y="238125"/>
+          <a:ext cx="746313" cy="207869"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>反审核</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>20729</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>115980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="圆角矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1392329" y="6250080"/>
+          <a:ext cx="1198470" cy="188819"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>分录新增</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>344579</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1228724</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="圆角矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2678204" y="6259605"/>
+          <a:ext cx="884145" cy="188819"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>分录删除</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>392204</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="圆角矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4726079" y="8382000"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>直接提交</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>468404</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="圆角矩形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5488079" y="8382000"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>保存</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>535079</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="圆角矩形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6240554" y="8372475"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>审核</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>620804</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="圆角矩形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7012079" y="8353425"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>重填</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>706529</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="圆角矩形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7783604" y="8343900"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>打印</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>573179</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="圆角矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8545604" y="8334375"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>取消</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>325529</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="圆角矩形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1697129" y="10829925"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>确定</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>192179</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="圆角矩形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2525804" y="10820400"/>
+          <a:ext cx="684121" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>取消</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -4842,8 +6037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4858,13 +6053,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.75">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
@@ -4899,11 +6094,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="33">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="68" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>59</v>
@@ -4912,11 +6107,11 @@
         <v>9</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="66">
-      <c r="A5" s="37"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="31" t="s">
         <v>72</v>
       </c>
@@ -4931,9 +6126,9 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="37"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>61</v>
@@ -4946,7 +6141,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="33">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="74" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -4963,7 +6158,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="17" customFormat="1" ht="66">
-      <c r="A8" s="42"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="15" t="s">
         <v>74</v>
       </c>
@@ -4971,34 +6166,34 @@
         <v>64</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="14" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A9" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="14" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>152</v>
-      </c>
     </row>
     <row r="10" spans="1:6" ht="12" customHeight="1">
-      <c r="A10" s="48"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="8" t="s">
         <v>40</v>
       </c>
@@ -5011,7 +6206,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="12" customHeight="1">
-      <c r="A11" s="48"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="8" t="s">
         <v>39</v>
       </c>
@@ -5026,7 +6221,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="12" customHeight="1">
-      <c r="A12" s="48"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="8" t="s">
         <v>67</v>
       </c>
@@ -5041,7 +6236,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="33">
-      <c r="A13" s="48"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="8" t="s">
         <v>82</v>
       </c>
@@ -5056,7 +6251,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="12" customHeight="1">
-      <c r="A14" s="48"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="8" t="s">
         <v>83</v>
       </c>
@@ -5071,7 +6266,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="12" customHeight="1">
-      <c r="A15" s="49"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="8" t="s">
         <v>84</v>
       </c>
@@ -5086,14 +6281,14 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="38" t="s">
-        <v>100</v>
+      <c r="A16" s="70" t="s">
+        <v>223</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
@@ -5101,12 +6296,12 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="33">
-      <c r="A17" s="39"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>78</v>
@@ -5116,12 +6311,12 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="39"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>75</v>
@@ -5131,12 +6326,12 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="33">
-      <c r="A19" s="39"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>76</v>
@@ -5146,12 +6341,12 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="33">
-      <c r="A20" s="39"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>65</v>
@@ -5161,12 +6356,12 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="33">
-      <c r="A21" s="39"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>78</v>
@@ -5176,12 +6371,12 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="39"/>
+      <c r="A22" s="71"/>
       <c r="B22" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>75</v>
@@ -5191,12 +6386,12 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="33">
-      <c r="A23" s="40"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>76</v>
@@ -5206,8 +6401,8 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="38" t="s">
-        <v>101</v>
+      <c r="A24" s="73" t="s">
+        <v>100</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>79</v>
@@ -5221,7 +6416,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="33">
-      <c r="A25" s="39"/>
+      <c r="A25" s="71"/>
       <c r="B25" s="31" t="s">
         <v>80</v>
       </c>
@@ -5229,7 +6424,7 @@
         <v>53</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>49</v>
@@ -5237,22 +6432,22 @@
       <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1">
-      <c r="A26" s="39"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>120</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>122</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="49.5">
-      <c r="A27" s="39"/>
+      <c r="A27" s="71"/>
       <c r="B27" s="5" t="s">
         <v>81</v>
       </c>
@@ -5260,14 +6455,14 @@
         <v>54</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="33">
-      <c r="A28" s="39"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="5" t="s">
         <v>85</v>
       </c>
@@ -5280,7 +6475,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="49.5">
-      <c r="A29" s="39"/>
+      <c r="A29" s="71"/>
       <c r="B29" s="5" t="s">
         <v>86</v>
       </c>
@@ -5295,7 +6490,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="33">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="78" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -5310,7 +6505,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="99">
-      <c r="A31" s="45"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="5" t="s">
         <v>93</v>
       </c>
@@ -5319,11 +6514,11 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="99">
-      <c r="A32" s="46"/>
+      <c r="A32" s="80"/>
       <c r="B32" s="31" t="s">
         <v>92</v>
       </c>
@@ -5331,105 +6526,105 @@
         <v>51</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="77"/>
+      <c r="B34" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="50" t="s">
+      <c r="D34" s="85"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="77"/>
+      <c r="B35" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="77"/>
+      <c r="B36" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="77"/>
+      <c r="B37" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="77"/>
+      <c r="B38" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="77"/>
+      <c r="B39" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="77"/>
+      <c r="B40" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="77"/>
+      <c r="B41" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="44"/>
-      <c r="B34" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="44"/>
-      <c r="B35" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="44"/>
-      <c r="B36" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="44"/>
-      <c r="B37" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="44"/>
-      <c r="B38" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="44"/>
-      <c r="B39" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="44"/>
-      <c r="B40" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="44"/>
-      <c r="B41" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41" s="51"/>
+      <c r="D41" s="85"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="33">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="68" t="s">
         <v>10</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -5444,7 +6639,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="37"/>
+      <c r="A43" s="68"/>
       <c r="B43" s="5" t="s">
         <v>30</v>
       </c>
@@ -5457,7 +6652,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="37"/>
+      <c r="A44" s="68"/>
       <c r="B44" s="5" t="s">
         <v>15</v>
       </c>
@@ -5470,7 +6665,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="37"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="5" t="s">
         <v>14</v>
       </c>
@@ -5483,7 +6678,7 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="37"/>
+      <c r="A46" s="68"/>
       <c r="B46" s="5" t="s">
         <v>96</v>
       </c>
@@ -5496,7 +6691,7 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="37"/>
+      <c r="A47" s="68"/>
       <c r="B47" s="5" t="s">
         <v>13</v>
       </c>
@@ -5509,7 +6704,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="37"/>
+      <c r="A48" s="68"/>
       <c r="B48" s="5" t="s">
         <v>18</v>
       </c>
@@ -5522,7 +6717,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="49.5">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="68" t="s">
         <v>11</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -5539,7 +6734,7 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="37"/>
+      <c r="A50" s="68"/>
       <c r="B50" s="5" t="s">
         <v>34</v>
       </c>
@@ -5552,7 +6747,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="37"/>
+      <c r="A51" s="68"/>
       <c r="B51" s="5" t="s">
         <v>16</v>
       </c>
@@ -5565,7 +6760,7 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="37"/>
+      <c r="A52" s="68"/>
       <c r="B52" s="5" t="s">
         <v>36</v>
       </c>
@@ -5578,7 +6773,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="37"/>
+      <c r="A53" s="68"/>
       <c r="B53" s="5" t="s">
         <v>19</v>
       </c>
@@ -5591,7 +6786,7 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="37"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="5" t="s">
         <v>28</v>
       </c>
@@ -5604,7 +6799,7 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="37"/>
+      <c r="A55" s="68"/>
       <c r="B55" s="5" t="s">
         <v>32</v>
       </c>
@@ -5630,7 +6825,7 @@
     </row>
     <row r="58" spans="1:5" s="21" customFormat="1">
       <c r="A58" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
@@ -5638,66 +6833,66 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C59" s="19"/>
-      <c r="D59" s="52" t="s">
-        <v>129</v>
+      <c r="D59" s="67" t="s">
+        <v>127</v>
       </c>
       <c r="E59" s="26"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="15"/>
       <c r="B60" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="D60" s="52"/>
+        <v>136</v>
+      </c>
+      <c r="D60" s="67"/>
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="15"/>
       <c r="B61" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="D61" s="52"/>
+        <v>136</v>
+      </c>
+      <c r="D61" s="67"/>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="15"/>
       <c r="B62" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="D62" s="52"/>
+        <v>155</v>
+      </c>
+      <c r="D62" s="67"/>
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="15"/>
       <c r="B63" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C63" s="16"/>
-      <c r="D63" s="52"/>
+      <c r="D63" s="67"/>
       <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="15"/>
       <c r="B64" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C64" s="16"/>
-      <c r="D64" s="52"/>
+      <c r="D64" s="67"/>
       <c r="E64" s="6"/>
     </row>
   </sheetData>
@@ -5723,871 +6918,874 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="66"/>
-    <col min="3" max="3" width="12.625" style="66" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="66" customWidth="1"/>
-    <col min="5" max="9" width="9" style="66"/>
-    <col min="10" max="10" width="11.75" style="66" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="66"/>
+    <col min="1" max="2" width="9" style="49"/>
+    <col min="3" max="3" width="12.625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="49" customWidth="1"/>
+    <col min="5" max="9" width="9" style="49"/>
+    <col min="10" max="10" width="11.75" style="49" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
+    </row>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="43">
+        <v>41445</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
-    </row>
-    <row r="2" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="69"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="59" t="s">
+      <c r="D3" s="43">
+        <v>41455</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="60">
-        <v>41445</v>
-      </c>
-      <c r="C3" s="61" t="s">
+      <c r="H3" s="53"/>
+      <c r="I3" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="60">
-        <v>41455</v>
-      </c>
-      <c r="E3" s="61" t="s">
+      <c r="E5" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="M5" s="54"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="48"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="54"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="48"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="54"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="48"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="54"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="55"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="54"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="54"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="48"/>
+      <c r="B12" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="38"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="54"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="48"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="54"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="48"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="54"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="48"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="54"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="55"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="54"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1">
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="58"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="62"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="62"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="B21" s="60"/>
+      <c r="C21" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="F3" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="G3" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="71"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="I5" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="J5" s="54" t="s">
+      <c r="J21" s="62"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="62"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="62"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="B23" s="60"/>
+      <c r="C23" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="62"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="62"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" s="62"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="62"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="62"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25" s="60"/>
+      <c r="C25" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="62"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" s="62"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="J25" s="62"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="62"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="62"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="B27" s="60"/>
+      <c r="C27" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="62"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="62"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="62"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="B29" s="60"/>
+      <c r="C29" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="62"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" s="60"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="62"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="B31" s="60"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="62"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="B32" s="60"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="62"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="60"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="62"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="62"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="62"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="60"/>
+      <c r="C36" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="L5" s="54" t="s">
+      <c r="E36" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="M5" s="71"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="65"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="71"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="65"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="71"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="65"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="71"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="72"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="71"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="71"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="84" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" s="57" t="s">
+      <c r="F36" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="G36" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="H36" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="I36" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="J36" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="62"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="60"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="62"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="60"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="62"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="60"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="60"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="60"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="60"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="60"/>
+      <c r="C44" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="63"/>
+      <c r="E44" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" s="62"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="I44" s="62"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="F11" s="57" t="s">
-        <v>202</v>
-      </c>
-      <c r="G11" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="H11" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="L11" s="70"/>
-      <c r="M11" s="71"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="65"/>
-      <c r="B12" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="C12" s="86" t="s">
-        <v>206</v>
-      </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="55"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="71"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="65"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="71"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="65"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="71"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="65"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="71"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="72"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="71"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1">
-      <c r="A17" s="73"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="75"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="79"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="79"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="B21" s="77"/>
-      <c r="C21" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77" t="s">
-        <v>179</v>
-      </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77" t="s">
-        <v>165</v>
-      </c>
-      <c r="J21" s="79"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="79"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="79"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="B23" s="77"/>
-      <c r="C23" s="77" t="s">
-        <v>180</v>
-      </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77" t="s">
-        <v>181</v>
-      </c>
-      <c r="G23" s="79"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77" t="s">
-        <v>182</v>
-      </c>
-      <c r="J23" s="79"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="79"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="79"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="B25" s="77"/>
-      <c r="C25" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="D25" s="79"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="G25" s="79"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="J25" s="79"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="79"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="79"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="B27" s="77"/>
-      <c r="C27" s="77" t="s">
-        <v>186</v>
-      </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="79"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="79"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="B29" s="77"/>
-      <c r="C29" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="79"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="B30" s="77"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="79"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" s="77"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="79"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="B32" s="77"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="79"/>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="77"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="79"/>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="79"/>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="79"/>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36" s="77"/>
-      <c r="C36" s="84" t="s">
-        <v>176</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="E36" s="57" t="s">
-        <v>200</v>
-      </c>
-      <c r="F36" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="G36" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="H36" s="57" t="s">
-        <v>202</v>
-      </c>
-      <c r="I36" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="J36" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="79"/>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" s="77"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="79"/>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="77"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="79"/>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39" s="77"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="B40" s="77"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-    </row>
-    <row r="41" spans="2:13">
-      <c r="B41" s="77"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="77"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="79"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44" s="77"/>
-      <c r="C44" s="77" t="s">
-        <v>189</v>
-      </c>
-      <c r="D44" s="80"/>
-      <c r="E44" s="77" t="s">
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="B52" s="60"/>
+      <c r="C52" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" s="60"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="B54" s="60"/>
+      <c r="C54" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="E54" s="60"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="B56" s="60"/>
+      <c r="C56" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="F44" s="79"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="I44" s="79"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="77"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="77"/>
-    </row>
-    <row r="47" spans="2:13">
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="77"/>
-      <c r="L47" s="77"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="B50" s="77"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="B52" s="77"/>
-      <c r="C52" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="D52" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="E52" s="77"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="B53" s="77"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="B54" s="77"/>
-      <c r="C54" s="77" t="s">
-        <v>214</v>
-      </c>
-      <c r="D54" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="E54" s="77"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="B55" s="77"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="B56" s="77"/>
-      <c r="C56" s="77" t="s">
-        <v>192</v>
-      </c>
-      <c r="D56" s="79"/>
-      <c r="E56" s="77"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="60"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="B57" s="77"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="77"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="60"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="B58" s="77"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="77"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="60"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="B59" s="77"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="B60" s="77"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="77"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="B61" s="77"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="77"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6603,687 +7801,690 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="66"/>
-    <col min="3" max="3" width="12.625" style="66" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="66" customWidth="1"/>
-    <col min="5" max="6" width="10.5" style="66" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9" style="66"/>
-    <col min="10" max="10" width="11.75" style="66" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="66"/>
+    <col min="1" max="2" width="9" style="49"/>
+    <col min="3" max="3" width="12.625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="49" customWidth="1"/>
+    <col min="5" max="6" width="10.5" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9" style="49"/>
+    <col min="10" max="10" width="11.75" style="49" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
+    </row>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="43">
+        <v>41445</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="43">
+        <v>41455</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="53"/>
+      <c r="I3" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="48"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="54"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="48"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="54"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="48"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="55"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="54"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="54"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
-    </row>
-    <row r="2" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="69"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="60">
-        <v>41445</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="60">
-        <v>41455</v>
-      </c>
-      <c r="E3" s="61" t="s">
+      <c r="E11" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="48"/>
+      <c r="B12" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="54"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="48"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="54"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="48"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="54"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="48"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="54"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="55"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="54"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1">
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="58"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="62"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="62"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="B21" s="60"/>
+      <c r="C21" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="F3" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="G3" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="71"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="54" t="s">
+      <c r="J21" s="62"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="62"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="62"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="B23" s="60"/>
+      <c r="C23" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="62"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" s="62"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="62"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="62"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25" s="60"/>
+      <c r="C25" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="62"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" s="60"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="62"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="B27" s="60"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="62"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="B28" s="60"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="62"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="B29" s="60"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="62"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="62"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="62"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="B32" s="60"/>
+      <c r="C32" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="E32" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="H32" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="G5" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="L5" s="70"/>
-      <c r="M5" s="71"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="65"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="71"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="65"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="71"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="65"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="71"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="72"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="71"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="71"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="84" t="s">
-        <v>175</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" s="85" t="s">
-        <v>200</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>209</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="G11" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="L11" s="70"/>
-      <c r="M11" s="71"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="65"/>
-      <c r="B12" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="C12" s="86" t="s">
-        <v>206</v>
-      </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="71"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="65"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="71"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="65"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="71"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="65"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="71"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="72"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="71"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1">
-      <c r="A17" s="73"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="75"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="79"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="79"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="B21" s="77"/>
-      <c r="C21" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77" t="s">
-        <v>179</v>
-      </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77" t="s">
-        <v>165</v>
-      </c>
-      <c r="J21" s="79"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="79"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="79"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="B23" s="77"/>
-      <c r="C23" s="77" t="s">
-        <v>180</v>
-      </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77" t="s">
-        <v>211</v>
-      </c>
-      <c r="G23" s="79"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="79"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="79"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="B25" s="77"/>
-      <c r="C25" s="77" t="s">
+      <c r="I32" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="60"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="62"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="60"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="62"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="60"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="60"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="60"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="60"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="60"/>
+      <c r="C40" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="63"/>
+      <c r="E40" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="79"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="B26" s="77"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="79"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="B27" s="77"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="79"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="B28" s="77"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="79"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="B29" s="77"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="79"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="79"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="79"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="B32" s="77"/>
-      <c r="C32" s="84" t="s">
-        <v>175</v>
-      </c>
-      <c r="D32" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="E32" s="85" t="s">
-        <v>200</v>
-      </c>
-      <c r="F32" s="57" t="s">
-        <v>209</v>
-      </c>
-      <c r="G32" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="H32" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="I32" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="77"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="79"/>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="77"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="79"/>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="77"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36" s="77"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" s="77"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="77"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="B40" s="77"/>
-      <c r="C40" s="77" t="s">
+      <c r="F40" s="62"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="D40" s="80"/>
-      <c r="E40" s="77" t="s">
-        <v>190</v>
-      </c>
-      <c r="F40" s="79"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="I40" s="79"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7298,732 +8499,735 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="66"/>
-    <col min="3" max="3" width="12.625" style="66" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="66" customWidth="1"/>
-    <col min="5" max="9" width="9" style="66"/>
-    <col min="10" max="10" width="11.75" style="66" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="66"/>
+    <col min="1" max="2" width="9" style="49"/>
+    <col min="3" max="3" width="12.625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="49" customWidth="1"/>
+    <col min="5" max="9" width="9" style="49"/>
+    <col min="10" max="10" width="11.75" style="49" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18">
-      <c r="A1" s="81" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="A1" s="86" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="69"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="43">
+        <v>41445</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="43">
+        <v>41455</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="60">
-        <v>41445</v>
-      </c>
-      <c r="C3" s="61" t="s">
+      <c r="H3" s="53"/>
+      <c r="I3" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="60">
-        <v>41455</v>
-      </c>
-      <c r="E3" s="61" t="s">
+      <c r="E5" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="48"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="54"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="48"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="54"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="48"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="55"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="54"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="54"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="48"/>
+      <c r="B12" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="54"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="48"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="54"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="48"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="54"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="48"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="54"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="55"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="54"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1">
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="58"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="62"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="62"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="B21" s="60"/>
+      <c r="C21" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="F3" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="G3" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="71"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="I5" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="J5" s="54" t="s">
+      <c r="J21" s="62"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="62"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="62"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="B23" s="60"/>
+      <c r="C23" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="62"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="J23" s="62"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="62"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="62"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25" s="60"/>
+      <c r="C25" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="62"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="62"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="62"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="B27" s="60"/>
+      <c r="C27" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="62"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="B28" s="60"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="62"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="B29" s="60"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="62"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" s="60"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="62"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="B31" s="60"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="62"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="62"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="62"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="60"/>
+      <c r="C34" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="L5" s="70"/>
-      <c r="M5" s="71"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="65"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="71"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="65"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="71"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="65"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="71"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="72"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="71"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="71"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="84" t="s">
-        <v>175</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" s="85" t="s">
+      <c r="E34" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="G34" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="H34" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="D11" s="57" t="s">
-        <v>209</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>202</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="L11" s="70"/>
-      <c r="M11" s="71"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="65"/>
-      <c r="B12" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="C12" s="86" t="s">
-        <v>206</v>
-      </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="71"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="65"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="71"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="65"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="71"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="65"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="71"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="72"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="71"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1">
-      <c r="A17" s="73"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="75"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="79"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="79"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="B21" s="77"/>
-      <c r="C21" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77" t="s">
-        <v>179</v>
-      </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77" t="s">
-        <v>165</v>
-      </c>
-      <c r="J21" s="79"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="79"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="79"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="B23" s="77"/>
-      <c r="C23" s="77" t="s">
-        <v>180</v>
-      </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77" t="s">
-        <v>217</v>
-      </c>
-      <c r="G23" s="78" t="s">
+      <c r="I34" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77" t="s">
-        <v>211</v>
-      </c>
-      <c r="J23" s="79"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="79"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="79"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="B25" s="77"/>
-      <c r="C25" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="D25" s="79"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="79"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="79"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="B27" s="77"/>
-      <c r="C27" s="77" t="s">
+      <c r="J34" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="60"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="62"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="60"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="62"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="60"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="60"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="60"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="60"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="60"/>
+      <c r="C42" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="63"/>
+      <c r="E42" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="79"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="B28" s="77"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="79"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="B29" s="77"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="79"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="B30" s="77"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="79"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" s="77"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="79"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="79"/>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="79"/>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="77"/>
-      <c r="C34" s="84" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="E34" s="85" t="s">
-        <v>200</v>
-      </c>
-      <c r="F34" s="57" t="s">
-        <v>209</v>
-      </c>
-      <c r="G34" s="57" t="s">
-        <v>219</v>
-      </c>
-      <c r="H34" s="57" t="s">
-        <v>202</v>
-      </c>
-      <c r="I34" s="57" t="s">
-        <v>218</v>
-      </c>
-      <c r="J34" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="77"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="79"/>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36" s="77"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="79"/>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" s="77"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="77"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39" s="77"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="B40" s="77"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-    </row>
-    <row r="41" spans="2:13">
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="77"/>
-      <c r="C42" s="77" t="s">
+      <c r="F42" s="62"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="D42" s="80"/>
-      <c r="E42" s="77" t="s">
-        <v>190</v>
-      </c>
-      <c r="F42" s="79"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="I42" s="79"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8034,4 +9238,886 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:M61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="9" style="49"/>
+    <col min="3" max="3" width="12.625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="49" customWidth="1"/>
+    <col min="5" max="9" width="9" style="49"/>
+    <col min="10" max="10" width="11.75" style="49" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18">
+      <c r="A1" s="89" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="91"/>
+    </row>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="43">
+        <v>41445</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="43">
+        <v>41455</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="53"/>
+      <c r="I3" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="M5" s="54"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="48"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="54"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="48"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="54"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="48"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="54"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="55"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="54"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="54"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="48"/>
+      <c r="B12" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="38"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="54"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="48"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="54"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="48"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="54"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="48"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="54"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="55"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="54"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1">
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="58"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="62"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="62"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="B21" s="60"/>
+      <c r="C21" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" s="62"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="62"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="62"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="B23" s="60"/>
+      <c r="C23" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="62"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="62"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" s="62"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="62"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="62"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25" s="60"/>
+      <c r="C25" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="62"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" s="62"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="J25" s="62"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="62"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="62"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="B27" s="60"/>
+      <c r="C27" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="62"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="62"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="62"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="B29" s="60"/>
+      <c r="C29" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="62"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" s="60"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="62"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="B31" s="60"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="62"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="B32" s="60"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="62"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="60"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="62"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="62"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="62"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="60"/>
+      <c r="C36" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="G36" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="I36" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="J36" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="62"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="60"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="62"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="60"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="62"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="60"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="60"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="60"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="60"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="60"/>
+      <c r="C44" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="63"/>
+      <c r="E44" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" s="62"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="I44" s="62"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="B52" s="60"/>
+      <c r="C52" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" s="60"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="B54" s="60"/>
+      <c r="C54" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="E54" s="60"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="B56" s="60"/>
+      <c r="C56" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="D56" s="62"/>
+      <c r="E56" s="60"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="60"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="60"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="B61" s="60"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/trunk/hot-deploy/partner/document/钢管厂一期软件开发需求/钢管厂一期需求分析.xlsx
+++ b/trunk/hot-deploy/partner/document/钢管厂一期软件开发需求/钢管厂一期需求分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="结构表" sheetId="1" r:id="rId1"/>
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="226">
   <si>
     <t>二级模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -915,10 +915,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>供应商</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1165,6 +1161,14 @@
   <si>
     <t>生产通知单下达</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产通知单下达</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4834,16 +4838,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>44261</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>7844</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>815786</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>226919</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>596712</xdr:colOff>
+      <xdr:colOff>406212</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>217394</xdr:rowOff>
+      <xdr:rowOff>207869</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4852,7 +4856,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2377886" y="236444"/>
+          <a:off x="2187386" y="226919"/>
           <a:ext cx="552451" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4890,15 +4894,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>711013</xdr:colOff>
+      <xdr:colOff>520513</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:colOff>1066800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>207869</xdr:rowOff>
+      <xdr:rowOff>198344</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4907,7 +4911,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3044638" y="238125"/>
+          <a:off x="2854138" y="228600"/>
           <a:ext cx="546287" cy="198344"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4944,14 +4948,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>378197</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1273547</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>12887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>244847</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>511547</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>207869</xdr:rowOff>
     </xdr:to>
@@ -4962,7 +4966,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5397872" y="241487"/>
+          <a:off x="3607172" y="241487"/>
           <a:ext cx="552450" cy="194982"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4999,14 +5003,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>444872</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25772</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>311522</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>578222</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>217394</xdr:rowOff>
     </xdr:to>
@@ -5017,7 +5021,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6150347" y="251012"/>
+          <a:off x="4359647" y="251012"/>
           <a:ext cx="552450" cy="194982"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5048,116 +5052,6 @@
             <a:t>打印</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>158562</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25772</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>217394</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="圆角矩形 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3806637" y="251012"/>
-          <a:ext cx="553010" cy="194982"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>审核</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>158561</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>217394</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="圆角矩形 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4492436" y="238125"/>
-          <a:ext cx="746313" cy="207869"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>反审核</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6037,8 +5931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6128,7 +6022,7 @@
     <row r="6" spans="1:6">
       <c r="A6" s="68"/>
       <c r="B6" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>61</v>
@@ -6177,7 +6071,7 @@
         <v>38</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>101</v>
@@ -6282,7 +6176,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>110</v>
@@ -6924,7 +6818,7 @@
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6986,14 +6880,14 @@
         <v>161</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="G3" s="44" t="s">
         <v>160</v>
       </c>
       <c r="H3" s="53"/>
       <c r="I3" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
@@ -7002,7 +6896,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -7019,13 +6913,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="C5" s="37" t="s">
         <v>167</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>168</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>161</v>
@@ -7034,25 +6928,25 @@
         <v>160</v>
       </c>
       <c r="F5" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="H5" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="I5" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="J5" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="K5" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="L5" s="37" t="s">
         <v>195</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="L5" s="37" t="s">
-        <v>196</v>
       </c>
       <c r="M5" s="54"/>
     </row>
@@ -7118,7 +7012,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
@@ -7132,28 +7026,28 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="D11" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="E11" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="E11" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="F11" s="40" t="s">
+      <c r="G11" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="H11" s="40" t="s">
         <v>201</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>202</v>
       </c>
       <c r="L11" s="53"/>
       <c r="M11" s="54"/>
@@ -7161,10 +7055,10 @@
     <row r="12" spans="1:13">
       <c r="A12" s="48"/>
       <c r="B12" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="66" t="s">
         <v>203</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>204</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
@@ -7257,7 +7151,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
@@ -7289,18 +7183,18 @@
     <row r="21" spans="1:13">
       <c r="B21" s="60"/>
       <c r="C21" s="60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E21" s="60"/>
       <c r="F21" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H21" s="60"/>
       <c r="I21" s="60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J21" s="62"/>
       <c r="K21" s="60"/>
@@ -7324,17 +7218,17 @@
     <row r="23" spans="1:13">
       <c r="B23" s="60"/>
       <c r="C23" s="60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D23" s="62"/>
       <c r="E23" s="60"/>
       <c r="F23" s="60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G23" s="62"/>
       <c r="H23" s="60"/>
       <c r="I23" s="60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J23" s="62"/>
       <c r="K23" s="60"/>
@@ -7358,17 +7252,17 @@
     <row r="25" spans="1:13">
       <c r="B25" s="60"/>
       <c r="C25" s="60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D25" s="62"/>
       <c r="E25" s="60"/>
       <c r="F25" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G25" s="62"/>
       <c r="H25" s="60"/>
       <c r="I25" s="60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J25" s="62"/>
       <c r="K25" s="60"/>
@@ -7392,12 +7286,12 @@
     <row r="27" spans="1:13">
       <c r="B27" s="60"/>
       <c r="C27" s="60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D27" s="62"/>
       <c r="E27" s="60"/>
       <c r="F27" s="60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G27" s="62"/>
       <c r="H27" s="62"/>
@@ -7424,7 +7318,7 @@
     <row r="29" spans="1:13">
       <c r="B29" s="60"/>
       <c r="C29" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D29" s="60"/>
       <c r="E29" s="60"/>
@@ -7524,28 +7418,28 @@
     <row r="36" spans="2:13">
       <c r="B36" s="60"/>
       <c r="C36" s="64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D36" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="F36" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="G36" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="H36" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="G36" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="H36" s="40" t="s">
+      <c r="I36" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="I36" s="40" t="s">
+      <c r="J36" s="40" t="s">
         <v>201</v>
-      </c>
-      <c r="J36" s="40" t="s">
-        <v>202</v>
       </c>
       <c r="K36" s="60"/>
       <c r="L36" s="60"/>
@@ -7647,16 +7541,16 @@
     <row r="44" spans="2:13">
       <c r="B44" s="60"/>
       <c r="C44" s="60" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D44" s="63"/>
       <c r="E44" s="60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F44" s="62"/>
       <c r="G44" s="60"/>
       <c r="H44" s="60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I44" s="62"/>
       <c r="J44" s="60"/>
@@ -7704,7 +7598,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B50" s="60"/>
       <c r="C50" s="60"/>
@@ -7720,10 +7614,10 @@
     <row r="52" spans="1:5">
       <c r="B52" s="60"/>
       <c r="C52" s="60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D52" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E52" s="60"/>
     </row>
@@ -7736,10 +7630,10 @@
     <row r="54" spans="1:5">
       <c r="B54" s="60"/>
       <c r="C54" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" s="59" t="s">
         <v>212</v>
-      </c>
-      <c r="D54" s="59" t="s">
-        <v>213</v>
       </c>
       <c r="E54" s="60"/>
     </row>
@@ -7752,7 +7646,7 @@
     <row r="56" spans="1:5">
       <c r="B56" s="60"/>
       <c r="C56" s="60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D56" s="62"/>
       <c r="E56" s="60"/>
@@ -7807,7 +7701,7 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7823,7 +7717,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18">
       <c r="A1" s="86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
@@ -7870,14 +7764,14 @@
         <v>161</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="G3" s="44" t="s">
         <v>160</v>
       </c>
       <c r="H3" s="53"/>
       <c r="I3" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
@@ -7886,7 +7780,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -7903,13 +7797,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="C5" s="37" t="s">
         <v>167</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>168</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>161</v>
@@ -7918,13 +7812,13 @@
         <v>160</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L5" s="53"/>
       <c r="M5" s="54"/>
@@ -7982,7 +7876,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
@@ -7996,25 +7890,25 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B11" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="65" t="s">
-        <v>198</v>
-      </c>
       <c r="D11" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E11" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="F11" s="40" t="s">
-        <v>222</v>
-      </c>
       <c r="G11" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L11" s="53"/>
       <c r="M11" s="54"/>
@@ -8022,10 +7916,10 @@
     <row r="12" spans="1:13">
       <c r="A12" s="48"/>
       <c r="B12" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="66" t="s">
         <v>203</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>204</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
@@ -8111,7 +8005,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
@@ -8143,18 +8037,18 @@
     <row r="21" spans="1:13">
       <c r="B21" s="60"/>
       <c r="C21" s="60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E21" s="60"/>
       <c r="F21" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H21" s="60"/>
       <c r="I21" s="60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J21" s="62"/>
       <c r="K21" s="60"/>
@@ -8178,17 +8072,17 @@
     <row r="23" spans="1:13">
       <c r="B23" s="60"/>
       <c r="C23" s="60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D23" s="62"/>
       <c r="E23" s="60"/>
       <c r="F23" s="60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G23" s="62"/>
       <c r="H23" s="60"/>
       <c r="I23" s="60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K23" s="60"/>
       <c r="L23" s="60"/>
@@ -8211,7 +8105,7 @@
     <row r="25" spans="1:13">
       <c r="B25" s="60"/>
       <c r="C25" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
@@ -8311,25 +8205,25 @@
     <row r="32" spans="1:13">
       <c r="B32" s="60"/>
       <c r="C32" s="64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D32" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="E32" s="65" t="s">
-        <v>198</v>
-      </c>
       <c r="F32" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G32" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="H32" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="H32" s="40" t="s">
-        <v>222</v>
-      </c>
       <c r="I32" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J32" s="60"/>
       <c r="K32" s="60"/>
@@ -8431,16 +8325,16 @@
     <row r="40" spans="2:13">
       <c r="B40" s="60"/>
       <c r="C40" s="60" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D40" s="63"/>
       <c r="E40" s="60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F40" s="62"/>
       <c r="G40" s="60"/>
       <c r="H40" s="60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I40" s="62"/>
       <c r="J40" s="60"/>
@@ -8504,8 +8398,8 @@
   </sheetPr>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8520,7 +8414,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18">
       <c r="A1" s="86" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
@@ -8567,14 +8461,14 @@
         <v>161</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="G3" s="44" t="s">
         <v>160</v>
       </c>
       <c r="H3" s="53"/>
       <c r="I3" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
@@ -8583,7 +8477,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -8600,13 +8494,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="C5" s="37" t="s">
         <v>167</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>168</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>161</v>
@@ -8615,22 +8509,22 @@
         <v>160</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K5" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L5" s="53"/>
       <c r="M5" s="54"/>
@@ -8697,7 +8591,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
@@ -8711,22 +8605,22 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B11" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="65" t="s">
-        <v>198</v>
-      </c>
       <c r="D11" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E11" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" s="40" t="s">
         <v>200</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>201</v>
       </c>
       <c r="L11" s="53"/>
       <c r="M11" s="54"/>
@@ -8734,10 +8628,10 @@
     <row r="12" spans="1:13">
       <c r="A12" s="48"/>
       <c r="B12" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="66" t="s">
         <v>203</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>204</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
@@ -8819,7 +8713,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
@@ -8851,18 +8745,18 @@
     <row r="21" spans="1:13">
       <c r="B21" s="60"/>
       <c r="C21" s="60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E21" s="60"/>
       <c r="F21" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H21" s="60"/>
       <c r="I21" s="60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J21" s="62"/>
       <c r="K21" s="60"/>
@@ -8886,19 +8780,19 @@
     <row r="23" spans="1:13">
       <c r="B23" s="60"/>
       <c r="C23" s="60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D23" s="62"/>
       <c r="E23" s="60"/>
       <c r="F23" s="60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G23" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H23" s="60"/>
       <c r="I23" s="60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J23" s="62"/>
       <c r="K23" s="60"/>
@@ -8922,7 +8816,7 @@
     <row r="25" spans="1:13">
       <c r="B25" s="60"/>
       <c r="C25" s="60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D25" s="62"/>
       <c r="E25" s="60"/>
@@ -8952,7 +8846,7 @@
     <row r="27" spans="1:13">
       <c r="B27" s="60"/>
       <c r="C27" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D27" s="60"/>
       <c r="E27" s="60"/>
@@ -9052,28 +8946,28 @@
     <row r="34" spans="2:13">
       <c r="B34" s="60"/>
       <c r="C34" s="64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D34" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="E34" s="65" t="s">
-        <v>198</v>
-      </c>
       <c r="F34" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G34" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H34" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="I34" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="J34" s="40" t="s">
         <v>200</v>
-      </c>
-      <c r="I34" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="J34" s="40" t="s">
-        <v>201</v>
       </c>
       <c r="K34" s="60"/>
       <c r="L34" s="60"/>
@@ -9174,16 +9068,16 @@
     <row r="42" spans="2:13">
       <c r="B42" s="60"/>
       <c r="C42" s="60" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D42" s="63"/>
       <c r="E42" s="60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F42" s="62"/>
       <c r="G42" s="60"/>
       <c r="H42" s="60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I42" s="62"/>
       <c r="J42" s="60"/>
@@ -9247,8 +9141,8 @@
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9263,7 +9157,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18">
       <c r="A1" s="89" t="s">
-        <v>157</v>
+        <v>224</v>
       </c>
       <c r="B1" s="90"/>
       <c r="C1" s="90"/>
@@ -9310,14 +9204,14 @@
         <v>161</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="G3" s="44" t="s">
         <v>160</v>
       </c>
       <c r="H3" s="53"/>
       <c r="I3" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
@@ -9326,7 +9220,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -9343,13 +9237,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="C5" s="37" t="s">
         <v>167</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>168</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>161</v>
@@ -9358,25 +9252,25 @@
         <v>160</v>
       </c>
       <c r="F5" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="H5" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="I5" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="J5" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="K5" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="L5" s="37" t="s">
         <v>195</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="L5" s="37" t="s">
-        <v>196</v>
       </c>
       <c r="M5" s="54"/>
     </row>
@@ -9442,7 +9336,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
@@ -9456,28 +9350,28 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="D11" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="E11" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="E11" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="F11" s="40" t="s">
+      <c r="G11" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="H11" s="40" t="s">
         <v>201</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>202</v>
       </c>
       <c r="L11" s="53"/>
       <c r="M11" s="54"/>
@@ -9485,10 +9379,10 @@
     <row r="12" spans="1:13">
       <c r="A12" s="48"/>
       <c r="B12" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="66" t="s">
         <v>203</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>204</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
@@ -9581,7 +9475,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
@@ -9613,18 +9507,18 @@
     <row r="21" spans="1:13">
       <c r="B21" s="60"/>
       <c r="C21" s="60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E21" s="60"/>
       <c r="F21" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H21" s="60"/>
       <c r="I21" s="60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J21" s="62"/>
       <c r="K21" s="60"/>
@@ -9648,17 +9542,17 @@
     <row r="23" spans="1:13">
       <c r="B23" s="60"/>
       <c r="C23" s="60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D23" s="62"/>
       <c r="E23" s="60"/>
       <c r="F23" s="60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G23" s="62"/>
       <c r="H23" s="60"/>
       <c r="I23" s="60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J23" s="62"/>
       <c r="K23" s="60"/>
@@ -9682,17 +9576,17 @@
     <row r="25" spans="1:13">
       <c r="B25" s="60"/>
       <c r="C25" s="60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D25" s="62"/>
       <c r="E25" s="60"/>
       <c r="F25" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G25" s="62"/>
       <c r="H25" s="60"/>
       <c r="I25" s="60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J25" s="62"/>
       <c r="K25" s="60"/>
@@ -9716,12 +9610,12 @@
     <row r="27" spans="1:13">
       <c r="B27" s="60"/>
       <c r="C27" s="60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D27" s="62"/>
       <c r="E27" s="60"/>
       <c r="F27" s="60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G27" s="62"/>
       <c r="H27" s="62"/>
@@ -9748,7 +9642,7 @@
     <row r="29" spans="1:13">
       <c r="B29" s="60"/>
       <c r="C29" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D29" s="60"/>
       <c r="E29" s="60"/>
@@ -9848,28 +9742,28 @@
     <row r="36" spans="2:13">
       <c r="B36" s="60"/>
       <c r="C36" s="64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D36" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="F36" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="G36" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="H36" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="G36" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="H36" s="40" t="s">
+      <c r="I36" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="I36" s="40" t="s">
+      <c r="J36" s="40" t="s">
         <v>201</v>
-      </c>
-      <c r="J36" s="40" t="s">
-        <v>202</v>
       </c>
       <c r="K36" s="60"/>
       <c r="L36" s="60"/>
@@ -9971,16 +9865,16 @@
     <row r="44" spans="2:13">
       <c r="B44" s="60"/>
       <c r="C44" s="60" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D44" s="63"/>
       <c r="E44" s="60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F44" s="62"/>
       <c r="G44" s="60"/>
       <c r="H44" s="60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I44" s="62"/>
       <c r="J44" s="60"/>
@@ -10028,7 +9922,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B50" s="60"/>
       <c r="C50" s="60"/>
@@ -10044,10 +9938,10 @@
     <row r="52" spans="1:5">
       <c r="B52" s="60"/>
       <c r="C52" s="60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D52" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E52" s="60"/>
     </row>
@@ -10060,10 +9954,10 @@
     <row r="54" spans="1:5">
       <c r="B54" s="60"/>
       <c r="C54" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" s="59" t="s">
         <v>212</v>
-      </c>
-      <c r="D54" s="59" t="s">
-        <v>213</v>
       </c>
       <c r="E54" s="60"/>
     </row>
@@ -10076,7 +9970,7 @@
     <row r="56" spans="1:5">
       <c r="B56" s="60"/>
       <c r="C56" s="60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D56" s="62"/>
       <c r="E56" s="60"/>

--- a/trunk/hot-deploy/partner/document/钢管厂一期软件开发需求/钢管厂一期需求分析.xlsx
+++ b/trunk/hot-deploy/partner/document/钢管厂一期软件开发需求/钢管厂一期需求分析.xlsx
@@ -225,7 +225,39 @@
         </r>
       </text>
     </comment>
-    <comment ref="C36" authorId="0">
+    <comment ref="A17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">物料编码
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">物料编码
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -246,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="257">
   <si>
     <t>二级模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1169,6 +1201,129 @@
   <si>
     <t>提交</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称/代码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户代码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产计划类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分条</t>
+  </si>
+  <si>
+    <t>提价人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>原材料</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造半成品/成品</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>原材料名称</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>原材料规格</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量(顿)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单重量(顿)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>交货重量(顿)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>交货重量(顿)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗用原材料明细</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造半成品/成品明细</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>产地</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注要求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>公差</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划数量(顿)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单生产要求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>条/扎/块数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆管</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1*1.5*800</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户代码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产计划类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计完成时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计完成时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1307,7 +1462,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1371,6 +1526,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1536,7 +1697,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1812,6 +1973,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5059,15 +5235,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>20729</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>668429</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>115980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5077,7 +5253,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1392329" y="6250080"/>
+          <a:off x="1354229" y="6973980"/>
           <a:ext cx="1198470" cy="188819"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5117,13 +5293,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>344579</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>125505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1228724</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5173,13 +5349,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>392204</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5229,13 +5405,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>468404</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5285,13 +5461,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>535079</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5341,13 +5517,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>620804</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5397,13 +5573,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>706529</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5453,13 +5629,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>573179</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5508,25 +5684,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>325529</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>236445</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>141194</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="圆角矩形 19"/>
+        <xdr:cNvPr id="22" name="圆角矩形 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1697129" y="10829925"/>
-          <a:ext cx="684121" cy="209549"/>
+          <a:off x="1371600" y="5543550"/>
+          <a:ext cx="1198470" cy="188819"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5553,7 +5729,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
-            <a:t>确定</a:t>
+            <a:t>分录新增</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
         </a:p>
@@ -5564,25 +5740,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>192179</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>1246095</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>150719</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="圆角矩形 20"/>
+        <xdr:cNvPr id="23" name="圆角矩形 22"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2525804" y="10820400"/>
-          <a:ext cx="684121" cy="209549"/>
+          <a:off x="2695575" y="5553075"/>
+          <a:ext cx="884145" cy="188819"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5609,7 +5785,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
-            <a:t>取消</a:t>
+            <a:t>分录删除</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
         </a:p>
@@ -6817,8 +6993,8 @@
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7185,7 +7361,7 @@
       <c r="C21" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="94" t="s">
         <v>175</v>
       </c>
       <c r="E21" s="60"/>
@@ -7220,17 +7396,17 @@
       <c r="C23" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="D23" s="62"/>
+      <c r="D23" s="95"/>
       <c r="E23" s="60"/>
       <c r="F23" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="G23" s="62"/>
+      <c r="G23" s="95"/>
       <c r="H23" s="60"/>
       <c r="I23" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="J23" s="62"/>
+      <c r="J23" s="95"/>
       <c r="K23" s="60"/>
       <c r="L23" s="60"/>
       <c r="M23" s="62"/>
@@ -7430,7 +7606,7 @@
         <v>198</v>
       </c>
       <c r="G36" s="40" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="H36" s="40" t="s">
         <v>199</v>
@@ -7543,16 +7719,16 @@
       <c r="C44" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="D44" s="63"/>
+      <c r="D44" s="96"/>
       <c r="E44" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="F44" s="62"/>
+      <c r="F44" s="95"/>
       <c r="G44" s="60"/>
       <c r="H44" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="I44" s="62"/>
+      <c r="I44" s="95"/>
       <c r="J44" s="60"/>
       <c r="K44" s="60"/>
       <c r="L44" s="60"/>
@@ -7616,7 +7792,7 @@
       <c r="C52" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="D52" s="61" t="s">
+      <c r="D52" s="94" t="s">
         <v>213</v>
       </c>
       <c r="E52" s="60"/>
@@ -7700,8 +7876,8 @@
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8039,7 +8215,7 @@
       <c r="C21" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="94" t="s">
         <v>175</v>
       </c>
       <c r="E21" s="60"/>
@@ -8079,7 +8255,7 @@
       <c r="F23" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="G23" s="62"/>
+      <c r="G23" s="95"/>
       <c r="H23" s="60"/>
       <c r="I23" s="60" t="s">
         <v>180</v>
@@ -8214,7 +8390,7 @@
         <v>197</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="G32" s="40" t="s">
         <v>220</v>
@@ -8327,16 +8503,16 @@
       <c r="C40" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="D40" s="63"/>
+      <c r="D40" s="96"/>
       <c r="E40" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="F40" s="62"/>
+      <c r="F40" s="95"/>
       <c r="G40" s="60"/>
       <c r="H40" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="I40" s="62"/>
+      <c r="I40" s="95"/>
       <c r="J40" s="60"/>
       <c r="K40" s="60"/>
       <c r="L40" s="60"/>
@@ -8398,8 +8574,8 @@
   </sheetPr>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8747,7 +8923,7 @@
       <c r="C21" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="94" t="s">
         <v>175</v>
       </c>
       <c r="E21" s="60"/>
@@ -8787,14 +8963,14 @@
       <c r="F23" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="G23" s="61" t="s">
+      <c r="G23" s="94" t="s">
         <v>213</v>
       </c>
       <c r="H23" s="60"/>
       <c r="I23" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="J23" s="62"/>
+      <c r="J23" s="95"/>
       <c r="K23" s="60"/>
       <c r="L23" s="60"/>
       <c r="M23" s="62"/>
@@ -8955,7 +9131,7 @@
         <v>197</v>
       </c>
       <c r="F34" s="40" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="G34" s="40" t="s">
         <v>216</v>
@@ -9070,16 +9246,16 @@
       <c r="C42" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="D42" s="63"/>
+      <c r="D42" s="96"/>
       <c r="E42" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="F42" s="62"/>
+      <c r="F42" s="95"/>
       <c r="G42" s="60"/>
       <c r="H42" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="I42" s="62"/>
+      <c r="I42" s="95"/>
       <c r="J42" s="60"/>
       <c r="K42" s="60"/>
       <c r="L42" s="60"/>
@@ -9139,18 +9315,22 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="49"/>
+    <col min="1" max="1" width="12.25" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="49"/>
     <col min="3" max="3" width="12.625" style="49" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="49" customWidth="1"/>
-    <col min="5" max="9" width="9" style="49"/>
+    <col min="5" max="5" width="9" style="49"/>
+    <col min="6" max="6" width="10.5" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5" style="49" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.75" style="49" customWidth="1"/>
     <col min="11" max="16384" width="9" style="49"/>
   </cols>
@@ -9207,11 +9387,11 @@
         <v>225</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="H3" s="53"/>
       <c r="I3" s="44" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
@@ -9249,29 +9429,21 @@
         <v>161</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="L5" s="37" t="s">
-        <v>195</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="I5" s="45"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="45"/>
       <c r="M5" s="54"/>
     </row>
     <row r="6" spans="1:13">
@@ -9283,10 +9455,10 @@
       <c r="F6" s="39"/>
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="38"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="45"/>
       <c r="M6" s="54"/>
     </row>
     <row r="7" spans="1:13">
@@ -9298,10 +9470,10 @@
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="38"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="45"/>
       <c r="M7" s="54"/>
     </row>
     <row r="8" spans="1:13">
@@ -9313,30 +9485,30 @@
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="38"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="45"/>
       <c r="M8" s="54"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="55"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="45"/>
       <c r="M9" s="54"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="46" t="s">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
@@ -9345,35 +9517,39 @@
       <c r="F10" s="45"/>
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
-      <c r="L10" s="53"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="45"/>
       <c r="M10" s="54"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="B11" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>197</v>
+      <c r="B11" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>235</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="L11" s="53"/>
+        <v>243</v>
+      </c>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="45"/>
       <c r="M11" s="54"/>
     </row>
     <row r="12" spans="1:13">
@@ -9388,8 +9564,11 @@
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
       <c r="G12" s="41"/>
-      <c r="H12" s="38"/>
-      <c r="L12" s="53"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="45"/>
       <c r="M12" s="54"/>
     </row>
     <row r="13" spans="1:13">
@@ -9400,8 +9579,11 @@
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="L13" s="53"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="45"/>
       <c r="M13" s="54"/>
     </row>
     <row r="14" spans="1:13">
@@ -9412,8 +9594,11 @@
       <c r="E14" s="38"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="L14" s="53"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="45"/>
       <c r="M14" s="54"/>
     </row>
     <row r="15" spans="1:13">
@@ -9424,171 +9609,165 @@
       <c r="E15" s="38"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
       <c r="L15" s="53"/>
       <c r="M15" s="54"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="55"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
+      <c r="A16" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
       <c r="L16" s="53"/>
       <c r="M16" s="54"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1">
-      <c r="A17" s="56"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="58"/>
+    <row r="17" spans="1:13">
+      <c r="A17" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="L17" s="53"/>
+      <c r="M17" s="54"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="38"/>
       <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
+      <c r="M18" s="54"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="48"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="54"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="48"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="54"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="48"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="54"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="55"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="54"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1">
+      <c r="A23" s="56"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="58"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="62"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="62"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="B21" s="60"/>
-      <c r="C21" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="J21" s="62"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="62"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="62"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="B23" s="60"/>
-      <c r="C23" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="J23" s="62"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="62"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="62"/>
-    </row>
-    <row r="25" spans="1:13">
       <c r="B25" s="60"/>
-      <c r="C25" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="62"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="60"/>
-      <c r="F25" s="60" t="s">
-        <v>181</v>
-      </c>
-      <c r="G25" s="62"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
       <c r="H25" s="60"/>
-      <c r="I25" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="J25" s="62"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
       <c r="K25" s="60"/>
       <c r="L25" s="60"/>
       <c r="M25" s="62"/>
@@ -9610,16 +9789,19 @@
     <row r="27" spans="1:13">
       <c r="B27" s="60"/>
       <c r="C27" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="D27" s="62"/>
+        <v>170</v>
+      </c>
+      <c r="D27" s="94" t="s">
+        <v>175</v>
+      </c>
       <c r="E27" s="60"/>
       <c r="F27" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
+        <v>176</v>
+      </c>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60" t="s">
+        <v>228</v>
+      </c>
       <c r="J27" s="62"/>
       <c r="K27" s="60"/>
       <c r="L27" s="60"/>
@@ -9642,43 +9824,51 @@
     <row r="29" spans="1:13">
       <c r="B29" s="60"/>
       <c r="C29" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="D29" s="60"/>
+        <v>229</v>
+      </c>
+      <c r="D29" s="61" t="s">
+        <v>230</v>
+      </c>
       <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
+      <c r="F29" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="G29" s="95"/>
       <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
+      <c r="I29" s="60" t="s">
+        <v>255</v>
+      </c>
+      <c r="J29" s="62"/>
       <c r="K29" s="60"/>
       <c r="L29" s="60"/>
       <c r="M29" s="62"/>
     </row>
     <row r="30" spans="1:13">
       <c r="B30" s="60"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
       <c r="K30" s="60"/>
       <c r="L30" s="60"/>
       <c r="M30" s="62"/>
     </row>
     <row r="31" spans="1:13">
       <c r="B31" s="60"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
+      <c r="C31" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
       <c r="K31" s="60"/>
       <c r="L31" s="60"/>
       <c r="M31" s="62"/>
@@ -9713,173 +9903,169 @@
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
       <c r="K34" s="60"/>
       <c r="L34" s="60"/>
       <c r="M34" s="62"/>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
       <c r="K35" s="60"/>
       <c r="L35" s="60"/>
       <c r="M35" s="62"/>
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="60"/>
-      <c r="C36" s="64" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="E36" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="F36" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="G36" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="H36" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="I36" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="J36" s="40" t="s">
-        <v>201</v>
-      </c>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
       <c r="K36" s="60"/>
       <c r="L36" s="60"/>
       <c r="M36" s="62"/>
     </row>
     <row r="37" spans="2:13">
       <c r="B37" s="60"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
+      <c r="C37" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
       <c r="K37" s="60"/>
       <c r="L37" s="60"/>
       <c r="M37" s="62"/>
     </row>
     <row r="38" spans="2:13">
       <c r="B38" s="60"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
       <c r="K38" s="60"/>
       <c r="L38" s="60"/>
       <c r="M38" s="62"/>
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="60"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
       <c r="K39" s="60"/>
       <c r="L39" s="60"/>
+      <c r="M39" s="62"/>
     </row>
     <row r="40" spans="2:13">
       <c r="B40" s="60"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
+      <c r="C40" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="I40" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="J40" s="60"/>
       <c r="K40" s="60"/>
       <c r="L40" s="60"/>
+      <c r="M40" s="62"/>
     </row>
     <row r="41" spans="2:13">
       <c r="B41" s="60"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="60"/>
       <c r="K41" s="60"/>
       <c r="L41" s="60"/>
+      <c r="M41" s="62"/>
     </row>
     <row r="42" spans="2:13">
       <c r="B42" s="60"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="60"/>
       <c r="K42" s="60"/>
       <c r="L42" s="60"/>
+      <c r="M42" s="62"/>
     </row>
     <row r="43" spans="2:13">
       <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
       <c r="J43" s="60"/>
       <c r="K43" s="60"/>
       <c r="L43" s="60"/>
+      <c r="M43" s="62"/>
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="60"/>
-      <c r="C44" s="60" t="s">
-        <v>186</v>
-      </c>
+      <c r="C44" s="63"/>
       <c r="D44" s="63"/>
-      <c r="E44" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="F44" s="62"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="I44" s="62"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
       <c r="J44" s="60"/>
       <c r="K44" s="60"/>
       <c r="L44" s="60"/>
+      <c r="M44" s="62"/>
     </row>
     <row r="45" spans="2:13">
       <c r="B45" s="60"/>
@@ -9893,10 +10079,13 @@
       <c r="J45" s="60"/>
       <c r="K45" s="60"/>
       <c r="L45" s="60"/>
+      <c r="M45" s="62"/>
     </row>
     <row r="46" spans="2:13">
       <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
+      <c r="C46" s="60" t="s">
+        <v>233</v>
+      </c>
       <c r="D46" s="60"/>
       <c r="E46" s="60"/>
       <c r="F46" s="60"/>
@@ -9906,6 +10095,7 @@
       <c r="J46" s="60"/>
       <c r="K46" s="60"/>
       <c r="L46" s="60"/>
+      <c r="M46" s="62"/>
     </row>
     <row r="47" spans="2:13">
       <c r="B47" s="60"/>
@@ -9919,97 +10109,213 @@
       <c r="J47" s="60"/>
       <c r="K47" s="60"/>
       <c r="L47" s="60"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="36" t="s">
-        <v>209</v>
-      </c>
+      <c r="M47" s="62"/>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="62"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="60"/>
+      <c r="C49" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="F49" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="G49" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="H49" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="I49" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="J49" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="62"/>
+    </row>
+    <row r="50" spans="2:13">
       <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="62"/>
+    </row>
+    <row r="51" spans="2:13">
       <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="62"/>
+    </row>
+    <row r="52" spans="2:13">
       <c r="B52" s="60"/>
-      <c r="C52" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="D52" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="E52" s="60"/>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
+    </row>
+    <row r="53" spans="2:13">
       <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="60"/>
+    </row>
+    <row r="54" spans="2:13">
       <c r="B54" s="60"/>
-      <c r="C54" s="60" t="s">
-        <v>211</v>
-      </c>
-      <c r="D54" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="E54" s="60"/>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
+    </row>
+    <row r="55" spans="2:13">
       <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="60"/>
+    </row>
+    <row r="56" spans="2:13">
       <c r="B56" s="60"/>
-      <c r="C56" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="D56" s="62"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
       <c r="E56" s="60"/>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="60"/>
+      <c r="K56" s="60"/>
+      <c r="L56" s="60"/>
+    </row>
+    <row r="57" spans="2:13">
       <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="60"/>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="C57" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" s="96"/>
+      <c r="E57" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="F57" s="95"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="I57" s="95"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="60"/>
+    </row>
+    <row r="58" spans="2:13">
       <c r="B58" s="60"/>
       <c r="C58" s="60"/>
-      <c r="D58" s="62"/>
+      <c r="D58" s="60"/>
       <c r="E58" s="60"/>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
+    </row>
+    <row r="59" spans="2:13">
       <c r="B59" s="60"/>
       <c r="C59" s="60"/>
       <c r="D59" s="60"/>
       <c r="E59" s="60"/>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="60"/>
+      <c r="L59" s="60"/>
+    </row>
+    <row r="60" spans="2:13">
       <c r="B60" s="60"/>
       <c r="C60" s="60"/>
       <c r="D60" s="60"/>
       <c r="E60" s="60"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="B61" s="60"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29">
+      <formula1>"分条,拉管,平直"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
